--- a/pred_ohlcv/54_21/2019-10-12 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-12 FAB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-928250.7604999999</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-928250.7604999999</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-928250.7604999999</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-927800.2966781075</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-896112.7604999999</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1012461.0605</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1011350.0605</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1011350.0605</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1011330.0605</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1087443.3908</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-1087443.3908</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-1088554.3908</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-1035034.8403</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-805449.6649999999</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-805377.0233999999</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-805377.0233999999</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-805377.0233999999</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-805377.0233999999</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-806377.0233999999</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-806366.0233999999</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-806366.0233999999</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-749249.9378999999</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-749249.9378999999</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-765994.6156999998</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-764139.9699999999</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-764139.9699999999</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-672974.4538829286</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-687974.4538829286</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-699184.1396829286</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-699184.1396829286</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-653586.5492829286</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-653586.5492829286</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-653586.5492829286</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-747364.9117829286</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-747297.7052829287</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-747297.7052829287</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-747297.7052829287</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-747297.7052829287</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-757297.6427829287</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-750995.6318829287</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-750995.6318829287</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-750995.6318829287</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-750995.6318829287</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-750995.6318829287</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-750942.3381829286</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-669676.3557449724</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-669676.3557449724</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-669676.3557449724</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-669676.3557449724</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-669676.3557449724</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-669676.3557449724</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-669676.3557449724</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-670414.5057449724</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-670373.4148449724</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-670373.4148449724</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-670373.4148449724</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-670373.4148449724</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-670373.4148449724</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-670373.4148449724</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-670373.4148449724</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-667588.0461449724</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-667588.0461449724</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-667588.0461449724</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-667588.0461449724</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-654770.4508449724</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-614812.8112449724</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-614812.8112449724</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-614812.8112449724</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-614812.8112449724</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-599924.5785449723</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-599924.5785449723</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-599924.5785449723</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-735849.7068449723</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-735849.7068449723</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-769550.2563449723</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-819762.4044449723</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-1063536.520844972</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1063503.520844972</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-1063503.520844972</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-1063503.520844972</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-1063503.520844972</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-1063503.520844972</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-1063503.520844972</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-1138850.513603817</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1138850.513603817</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1012046.347003817</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1059484.677103817</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1059474.497103817</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-990874.9654626618</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-806157.5286626618</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-806157.5286626618</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-798657.5286626618</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-851200.8286626618</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-752566.8969626619</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-752566.8969626619</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-758761.0069626619</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-761261.0069626619</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-763771.0069626619</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-763742.4934626619</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-763742.4934626619</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-763742.4934626619</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-763669.8723626619</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-768438.9370626619</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-768438.9370626619</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-768471.2072626619</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-781251.7476626619</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-773103.2188803515</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-773103.2188803515</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-773103.2188803515</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-773078.7684803515</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-773078.7684803515</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-773078.7684803515</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-435004.6622803516</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-435004.6622803516</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-435004.6622803516</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-435004.6622803516</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>165006.3377196484</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>165006.3377196484</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>170006.3377196484</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>170006.3377196484</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>170006.3377196484</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>170006.3377196484</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>559570.5953196485</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>5718248.348619649</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>6083065.624519649</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>5063489.415119649</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>5120546.383919649</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>5120546.383919649</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>5098629.383919649</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>5098629.383919649</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>5112129.383919649</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>4895506.168619649</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>4672060.739819649</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>4693455.426319649</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>4693343.782519649</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>4844433.986119648</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>4886815.090419648</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>4447894.774419649</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>3433508.859719648</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>3025512.537019649</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>4072555.305819649</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>4335713.055119649</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>3937278.375019649</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>3884118.090019648</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>3944577.827219648</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>3944577.827219648</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>3944577.827219648</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>3995634.778119648</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>3995645.778119648</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>3945542.100619648</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>4585631.902219648</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>4334690.499919648</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>4334690.499919648</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>4334760.173319648</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>4093160.200619648</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>4093160.200619648</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>4100237.322719648</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>4100237.322719648</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>4078938.322719648</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>4155495.611219648</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>4155495.611219648</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>4120936.502119648</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>4120936.502119648</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>4121158.154519648</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>3987790.609919648</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>3876352.885819647</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>3876352.885819647</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>3131448.005419647</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>3197644.076119647</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>3155771.021119647</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>3350877.565719647</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>3343556.751519647</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>3345836.887319647</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>3345836.887319647</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>3393940.733619647</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>3312625.733619647</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>3341443.472519647</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>3070301.679519647</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>3070313.679519647</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>3070313.679519647</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>3026586.263419647</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>2893369.780919647</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>2948369.780919647</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>2948369.780919647</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>2893143.327819647</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>2893308.168719647</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>2888308.168719647</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>2871531.490919647</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>2871531.490919647</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>2858468.944019647</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>2860979.944019647</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>2864079.944019647</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>2894807.735719647</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>2737797.362219647</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>2694263.128119647</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>2689263.128119647</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>2638717.817219647</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>2638846.278019647</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>2643888.535919647</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>2643888.535919647</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>2896100.520219647</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>2896100.520219647</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>2896100.520219647</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>2884146.773319647</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>2884157.773319647</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>2882300.101419647</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>2882300.101419647</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-12 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-12 FAB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-928250.7604999999</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-928250.7604999999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-928250.7604999999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-927800.2966781075</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-896112.7604999999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1012461.0605</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1011350.0605</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1011350.0605</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1011330.0605</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1087443.3908</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-1087443.3908</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-1088554.3908</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-1035034.8403</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-805449.6649999999</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-805377.0233999999</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-805377.0233999999</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-805377.0233999999</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-805377.0233999999</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-806377.0233999999</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-806366.0233999999</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-806366.0233999999</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-749249.9378999999</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-749249.9378999999</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-765994.6156999998</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-764139.9699999999</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-764139.9699999999</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-672974.4538829286</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-687974.4538829286</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-699184.1396829286</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-699184.1396829286</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-653586.5492829286</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-653586.5492829286</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-653586.5492829286</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-747364.9117829286</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-747297.7052829287</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-747297.7052829287</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-747297.7052829287</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-747297.7052829287</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-757297.6427829287</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-750995.6318829287</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-750995.6318829287</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-750995.6318829287</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-750995.6318829287</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-750995.6318829287</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-750942.3381829286</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-679676.3557449724</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-669676.3557449724</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-669676.3557449724</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-669676.3557449724</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-669676.3557449724</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-669676.3557449724</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-669676.3557449724</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-669676.3557449724</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-670414.5057449724</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-670373.4148449724</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-670373.4148449724</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-670373.4148449724</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-670373.4148449724</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-670373.4148449724</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-670373.4148449724</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-670373.4148449724</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-667588.0461449724</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-667588.0461449724</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-667588.0461449724</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-667588.0461449724</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-654770.4508449724</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-614812.8112449724</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-614812.8112449724</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-614812.8112449724</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-614812.8112449724</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-599924.5785449723</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-599924.5785449723</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-599924.5785449723</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-735849.7068449723</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-735849.7068449723</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-769550.2563449723</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-819762.4044449723</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-1063536.520844972</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1063503.520844972</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-1063503.520844972</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-1063503.520844972</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-1063503.520844972</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-1063503.520844972</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-1063503.520844972</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-1138850.513603817</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1138850.513603817</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1012046.347003817</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1059484.677103817</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1059474.497103817</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-990874.9654626618</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-806157.5286626618</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-806157.5286626618</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-798657.5286626618</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-851200.8286626618</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-752566.8969626619</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-752566.8969626619</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-758761.0069626619</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-761261.0069626619</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-763771.0069626619</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-763742.4934626619</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-763742.4934626619</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-763742.4934626619</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-763669.8723626619</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-768438.9370626619</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-768438.9370626619</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-768471.2072626619</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-781251.7476626619</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-773103.2188803515</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-773103.2188803515</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-773103.2188803515</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-773078.7684803515</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-773078.7684803515</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-773078.7684803515</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-435004.6622803516</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-435004.6622803516</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-435004.6622803516</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-435004.6622803516</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>165006.3377196484</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>165006.3377196484</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>170006.3377196484</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>170006.3377196484</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>170006.3377196484</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>170006.3377196484</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>559570.5953196485</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>6928607.218319649</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>5718248.348619649</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>6083065.624519649</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>5063489.415119649</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>5120546.383919649</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>5120546.383919649</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>5098629.383919649</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>5098629.383919649</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>5112129.383919649</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>4895506.168619649</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>4672060.739819649</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>4693455.426319649</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>4693343.782519649</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>4844433.986119648</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>4886815.090419648</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>4447894.774419649</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>3433508.859719648</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>3937278.375019649</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>3884118.090019648</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>3944577.827219648</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>3944577.827219648</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>3944577.827219648</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>3995634.778119648</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>3995645.778119648</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>3945542.100619648</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>4585631.902219648</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>4334690.499919648</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>4334690.499919648</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>4334760.173319648</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>4093160.200619648</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>4093160.200619648</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>4100237.322719648</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>4155495.611219648</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>4155495.611219648</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>4120936.502119648</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>4121158.154519648</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>3987790.609919648</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>3876352.885819647</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>3131448.005419647</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>3197644.076119647</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>3155771.021119647</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>3350877.565719647</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>3343556.751519647</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>3345836.887319647</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>3345836.887319647</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>3393940.733619647</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>3312625.733619647</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>3341443.472519647</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>3070301.679519647</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>3070313.679519647</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>3070313.679519647</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>3026586.263419647</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>2893369.780919647</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>2948369.780919647</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>2948369.780919647</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>2893143.327819647</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>2893308.168719647</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>2888308.168719647</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>2871531.490919647</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>2871531.490919647</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>2858468.944019647</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>2860979.944019647</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>2864079.944019647</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>2894807.735719647</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>2737797.362219647</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>2694263.128119647</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>2689263.128119647</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>2638717.817219647</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>2638846.278019647</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>2643888.535919647</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>2643888.535919647</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>2896100.520219647</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>2896100.520219647</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>2896100.520219647</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>2884146.773319647</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>2884157.773319647</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>2882300.101419647</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>2882300.101419647</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
